--- a/DOE/Adimec/resultaten_excel.xlsx
+++ b/DOE/Adimec/resultaten_excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lteeg\Documents\Github\School\DOE\Adimec\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leroy Teegelbeckers\Documents\Github\School\DOE\Adimec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C317974-E625-4E50-A726-6123489644AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F53B3C-28EF-4B04-8B77-70A9016A6B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="32">
   <si>
     <t>95 C</t>
   </si>
@@ -86,9 +86,6 @@
     <t>Factoren</t>
   </si>
   <si>
-    <t>Resultaten</t>
-  </si>
-  <si>
     <t>Factor</t>
   </si>
   <si>
@@ -126,6 +123,15 @@
   </si>
   <si>
     <t>INFORMATIE OVER FACTOREN</t>
+  </si>
+  <si>
+    <t>Resultaten ( k [N/mm])</t>
+  </si>
+  <si>
+    <t>Veerconstante [N/mm]</t>
+  </si>
+  <si>
+    <t>Response:</t>
   </si>
 </sst>
 </file>
@@ -135,7 +141,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-413]General"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -160,8 +166,23 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,6 +201,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -190,80 +216,46 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Goed" xfId="1" builtinId="26"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-413]General"/>
     </dxf>
@@ -432,6 +424,44 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -446,20 +476,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5B9A8542-776F-4008-B07E-9AB5EC41CB77}" name="Tabel2" displayName="Tabel2" ref="A2:K34" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5B9A8542-776F-4008-B07E-9AB5EC41CB77}" name="Tabel2" displayName="Tabel2" ref="A2:K34" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A2:K34" xr:uid="{5B9A8542-776F-4008-B07E-9AB5EC41CB77}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{CD19933F-580F-4768-8057-7C223827AEC9}" name="RunOrder" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{62E5409D-A0C5-4DDC-B7CA-96C0DB79DD3A}" name="STD" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{B6B54804-00D1-43AE-8EA4-16AF502A01A3}" name="Tijd" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{E15B062C-6656-4387-B250-86E760D6883D}" name="Afstand" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{BCF3D60E-A05D-45F6-9ECD-9E0558F1F3B5}" name="Vloedlamp" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{5F9737CF-BD8C-489F-97EF-CE6B065FA249}" name="Schoonmaak" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{C64C77D3-C54D-48F9-8EAC-7D1DA07C8C37}" name="Adhesion" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{9CF5A3A2-20C5-416D-A83B-9160BE802A53}" name="-45 C" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{8E8D5454-36BE-4C5E-8F1B-6DEE8F8681A1}" name="21 C" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{2B03E32F-BC76-49D7-897B-2EBB32892C87}" name="95 C" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{D9FF22F0-5EA8-4897-AD49-FBB4442FD12B}" name="105 C" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{CD19933F-580F-4768-8057-7C223827AEC9}" name="RunOrder" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{62E5409D-A0C5-4DDC-B7CA-96C0DB79DD3A}" name="STD" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{B6B54804-00D1-43AE-8EA4-16AF502A01A3}" name="Tijd" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{E15B062C-6656-4387-B250-86E760D6883D}" name="Afstand" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{BCF3D60E-A05D-45F6-9ECD-9E0558F1F3B5}" name="Vloedlamp" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{5F9737CF-BD8C-489F-97EF-CE6B065FA249}" name="Schoonmaak" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{C64C77D3-C54D-48F9-8EAC-7D1DA07C8C37}" name="Adhesion" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{9CF5A3A2-20C5-416D-A83B-9160BE802A53}" name="-45 C" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{8E8D5454-36BE-4C5E-8F1B-6DEE8F8681A1}" name="21 C" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{2B03E32F-BC76-49D7-897B-2EBB32892C87}" name="95 C" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{D9FF22F0-5EA8-4897-AD49-FBB4442FD12B}" name="105 C" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -777,77 +807,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="9" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+    </row>
+    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -882,7 +912,7 @@
         <v>432.09899999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -917,7 +947,7 @@
         <v>429.41199999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -952,7 +982,7 @@
         <v>471.59100000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -987,10 +1017,10 @@
         <v>449.36700000000002</v>
       </c>
       <c r="N6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1025,7 +1055,7 @@
         <v>287.23399999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1060,19 +1090,19 @@
         <v>546.51199999999994</v>
       </c>
       <c r="N8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" t="s">
         <v>17</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>18</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1107,7 +1137,7 @@
         <v>308.14</v>
       </c>
       <c r="N9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O9">
         <v>30</v>
@@ -1116,10 +1146,10 @@
         <v>90</v>
       </c>
       <c r="Q9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1154,7 +1184,7 @@
         <v>222.892</v>
       </c>
       <c r="N10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O10">
         <v>2.2999999999999998</v>
@@ -1163,10 +1193,10 @@
         <v>7.1</v>
       </c>
       <c r="Q10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1201,7 +1231,7 @@
         <v>465.11599999999999</v>
       </c>
       <c r="N11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O11" t="s">
         <v>9</v>
@@ -1210,10 +1240,10 @@
         <v>7</v>
       </c>
       <c r="Q11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1248,7 +1278,7 @@
         <v>470.238</v>
       </c>
       <c r="N12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O12" t="s">
         <v>10</v>
@@ -1257,10 +1287,10 @@
         <v>8</v>
       </c>
       <c r="Q12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1295,7 +1325,7 @@
         <v>461.95699999999999</v>
       </c>
       <c r="N13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O13" t="s">
         <v>9</v>
@@ -1304,10 +1334,10 @@
         <v>7</v>
       </c>
       <c r="Q13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1342,7 +1372,7 @@
         <v>389.53500000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -1377,7 +1407,7 @@
         <v>215.11600000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -1411,8 +1441,15 @@
       <c r="K16" s="1">
         <v>409.63900000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="P16" s="11"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -1447,7 +1484,7 @@
         <v>182.92699999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -1482,7 +1519,7 @@
         <v>425.28699999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -1517,7 +1554,7 @@
         <v>380.68200000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -1552,7 +1589,7 @@
         <v>488.76400000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -1587,7 +1624,7 @@
         <v>215.11600000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -1622,7 +1659,7 @@
         <v>471.26400000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -1657,7 +1694,7 @@
         <v>484.04300000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -1692,7 +1729,7 @@
         <v>253.08600000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -1727,7 +1764,7 @@
         <v>476.471</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -1762,7 +1799,7 @@
         <v>469.88</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -1797,7 +1834,7 @@
         <v>318.18200000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -1832,7 +1869,7 @@
         <v>523.80999999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -1867,7 +1904,7 @@
         <v>445.05500000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -1902,7 +1939,7 @@
         <v>311.76499999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -1937,7 +1974,7 @@
         <v>319.767</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -1972,7 +2009,7 @@
         <v>293.10300000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -2007,7 +2044,7 @@
         <v>369.048</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>32</v>
       </c>
